--- a/helpers/templates/deliveryArticles/rdn1.xlsx
+++ b/helpers/templates/deliveryArticles/rdn1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="177">
   <si>
     <t>ParentKey</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>ShipToDescription</t>
+  </si>
+  <si>
+    <t>WhsCode</t>
+  </si>
+  <si>
+    <t>U_L_P_Origen</t>
+  </si>
+  <si>
+    <t>U_L_P_Destino</t>
   </si>
   <si>
     <t>U_MontoUSD</t>
@@ -356,9 +365,6 @@
   </si>
   <si>
     <t>DiscPrcnt</t>
-  </si>
-  <si>
-    <t>WhsCode</t>
   </si>
   <si>
     <t>SlpCode</t>
@@ -630,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -645,6 +651,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -952,7 +961,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:DE2"/>
+  <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1063,13 +1072,16 @@
     <col min="103" max="103" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="104" max="104" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="105" max="105" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="106" max="106" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="107" max="107" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="108" max="108" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="109" max="109" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="106" max="106" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="107" max="107" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="108" max="108" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="109" max="109" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="110" max="110" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="111" max="111" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="112" max="112" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,13 +1406,22 @@
       <c r="DD1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DE1" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="DF1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1409,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
@@ -1421,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>8</v>
@@ -1430,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>11</v>
@@ -1439,34 +1460,34 @@
         <v>12</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>23</v>
@@ -1475,37 +1496,37 @@
         <v>24</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK2" s="5" t="s">
         <v>36</v>
@@ -1532,19 +1553,19 @@
         <v>43</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AT2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AX2" s="5" t="s">
         <v>49</v>
@@ -1556,52 +1577,52 @@
         <v>51</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BC2" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BH2" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BI2" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BL2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BN2" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BQ2" s="5" t="s">
         <v>68</v>
@@ -1610,16 +1631,16 @@
         <v>69</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BT2" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BU2" s="5" t="s">
         <v>72</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BW2" s="5" t="s">
         <v>74</v>
@@ -1634,7 +1655,7 @@
         <v>77</v>
       </c>
       <c r="CA2" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CB2" s="5" t="s">
         <v>79</v>
@@ -1643,76 +1664,76 @@
         <v>80</v>
       </c>
       <c r="CD2" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CE2" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="CF2" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="CG2" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CH2" s="5" t="s">
         <v>85</v>
       </c>
       <c r="CI2" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="CJ2" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="CK2" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CL2" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="CM2" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="CN2" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="CO2" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="CP2" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="CQ2" s="5" t="s">
         <v>94</v>
       </c>
       <c r="CR2" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CS2" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CT2" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="CU2" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="CV2" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CW2" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CX2" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="CY2" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CZ2" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DA2" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="DB2" s="4" t="s">
         <v>105</v>
@@ -1723,8 +1744,17 @@
       <c r="DD2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" s="5" t="s">
-        <v>174</v>
+      <c r="DE2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH2" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/helpers/templates/deliveryArticles/rdn1.xlsx
+++ b/helpers/templates/deliveryArticles/rdn1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="186">
   <si>
     <t>ParentKey</t>
   </si>
@@ -353,6 +353,33 @@
   <si>
     <t xml:space="preserve">U_UMcomercial
 </t>
+  </si>
+  <si>
+    <t>U_transporte</t>
+  </si>
+  <si>
+    <t>U_Placas</t>
+  </si>
+  <si>
+    <t>U_N_Operador</t>
+  </si>
+  <si>
+    <t>U_BL</t>
+  </si>
+  <si>
+    <t>U_N_pedimento</t>
+  </si>
+  <si>
+    <t>U_L_Clave_Pedimento</t>
+  </si>
+  <si>
+    <t>U_PaisOrigen</t>
+  </si>
+  <si>
+    <t>U_PaisDestino</t>
+  </si>
+  <si>
+    <t>U_FechaPedimento</t>
   </si>
   <si>
     <t>DocNum</t>
@@ -555,7 +582,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +604,12 @@
       <sz val="9"/>
       <color rgb="FFffffff"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -609,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -632,11 +665,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -650,7 +690,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -961,127 +1004,136 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:DH2"/>
+  <dimension ref="A1:DQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="73" max="73" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="76" max="76" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="77" max="77" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="78" max="78" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="79" max="79" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="80" max="80" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="81" max="81" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="82" max="82" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="83" max="83" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="84" max="84" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="85" max="85" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="86" max="86" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="87" max="87" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="88" max="88" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="89" max="89" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="90" max="90" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="91" max="91" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="92" max="92" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="93" max="93" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="94" max="94" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="95" max="95" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="96" max="96" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="97" max="97" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="98" max="98" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="99" max="99" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="100" max="100" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="101" max="101" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="102" max="102" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="103" max="103" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="104" max="104" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="105" max="105" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="106" max="106" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="107" max="107" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="108" max="108" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="109" max="109" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="110" max="110" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="111" max="111" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="112" max="112" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="79" max="79" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="80" max="80" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="81" max="81" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="82" max="82" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="83" max="83" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="84" max="84" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="85" max="85" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="86" max="86" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="87" max="87" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="88" max="88" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="89" max="89" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="90" max="90" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="91" max="91" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="95" max="95" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="96" max="96" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="97" max="97" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="98" max="98" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="99" max="99" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="100" max="100" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="101" max="101" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="102" max="102" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="103" max="103" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="104" max="104" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="105" max="105" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="106" max="106" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="107" max="107" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="108" max="108" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="109" max="109" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="110" max="110" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="111" max="111" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="112" max="112" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="113" max="113" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="114" max="114" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="115" max="115" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="116" max="116" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="117" max="117" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="118" max="118" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="119" max="119" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="120" max="120" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="121" max="121" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="37.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,325 +1467,352 @@
       <c r="DG1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DH1" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="R2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AB2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AH2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AP2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AR2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AS2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AU2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AW2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="AY2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="5" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BA2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="BK2" s="5" t="s">
+      <c r="BB2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="BL2" s="5" t="s">
+      <c r="BC2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
+      <c r="BM2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="5" t="s">
+      <c r="BR2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BU2" s="5" t="s">
+      <c r="BS2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="BU2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="BW2" s="5" t="s">
+      <c r="BV2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" s="5" t="s">
+      <c r="BX2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" s="5" t="s">
+      <c r="BY2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" s="5" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="CB2" s="5" t="s">
+      <c r="CA2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" s="5" t="s">
+      <c r="CC2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="CE2" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="CF2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="CG2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH2" s="5" t="s">
+      <c r="CD2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="CH2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="CJ2" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="CK2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="CM2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="CN2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO2" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="CP2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="CQ2" s="5" t="s">
+      <c r="CI2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="CJ2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="CK2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="CL2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="CM2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CN2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="CO2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="CP2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="CQ2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="CS2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="CT2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CU2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="CV2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="CW2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CX2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="CY2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="CZ2" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="DA2" s="5" t="s">
+      <c r="CR2" s="6" t="s">
         <v>175</v>
+      </c>
+      <c r="CS2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CT2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="CU2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="CV2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="CW2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CX2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="CY2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CZ2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="DA2" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="DB2" s="4" t="s">
         <v>105</v>
@@ -1753,8 +1832,35 @@
       <c r="DG2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" s="5" t="s">
-        <v>176</v>
+      <c r="DH2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="DI2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ2" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/helpers/templates/deliveryArticles/rdn1.xlsx
+++ b/helpers/templates/deliveryArticles/rdn1.xlsx
@@ -367,7 +367,7 @@
     <t>U_BL</t>
   </si>
   <si>
-    <t>U_N_pedimento</t>
+    <t>U_N_Pedimento</t>
   </si>
   <si>
     <t>U_L_Clave_Pedimento</t>
@@ -608,7 +608,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -691,7 +691,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1121,7 +1121,7 @@
     <col min="109" max="109" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="110" max="110" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="111" max="111" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="112" max="112" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="112" max="112" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="113" max="113" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="114" max="114" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="115" max="115" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -1133,7 +1133,7 @@
     <col min="121" max="121" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="6" t="s">
         <v>121</v>
       </c>
